--- a/Question_Set2/Software skills/Terraform.xlsx
+++ b/Question_Set2/Software skills/Terraform.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Three Virtual Machines were created for an application using a Terraform configuration, as illustrated in this terraform apply output: aws_instance.question[0]: Creation complete after 22s [id=i-0fe5c9f90a5c9376]aws_instance.question[1]: Creation complete after 25s [id=i-06240e6517a27559d]aws_instance.question[2]: Creation complete after 22s [id=i-0eb7ce0eed4df485] You later modified the state file aws_instance.question[1] manually, and you want to recreate just one aws_instance.question[1] machine. Which command(s) should you run to accomplish this?', 'ques_type': 2, 'options': ['terraform taint "aws_instace.question[1]"', 'terraform recreate -target="aws_instance.question[1]"', 'terraform taint "aws_instace.question[1]"terraform apply', 'terraform refresh -target="aws_instace.question[1]"terraform apply'], 'score': 'terraform taint "aws_instace.question[1]"terraform apply'}, {'title': 'You are using an AWS provider, and you need to create two EC2 instances in two different AWS regions. How can you use a single configuration to create resources in more than one region?', 'ques_type': 2, 'options': ['By including multiple configurations for the same AWS provider.', 'By including separate provider blocks for each region.', 'By including multiple provider blocks with the same provider name. ', 'By including multiple provider blocks with different provider names. '], 'score': 'By including multiple provider blocks with the same provider name.'}, {'title': 'You want to ensure that your S3 buckets are securely encrypted. What is the best way to achieve this?', 'ques_type': 2, 'options': ['Create a Git hook that checks if the encryption parameter is enabled.', 'Use AWS KMS to store a security key.', 'Create a lambda function triggered on a “create bucket CloudTrail” event.', 'Create a security policy using Sentinel policies.'], 'score': 'Create a security policy using Sentinel policies.'}, {'title': 'You have referred to a child module that has the following code. True or false: You can override the instance_type from t2.micro to t2.large from code without making any change in the module. resource "aws_instance" "myec2" { \n    ami = "ami-082b5a644766e0e6f" \n     instance_type = "t2.micro" \n } ', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "Three Virtual Machines were created for an application using a Terraform configuration, as illustrated in this terraform apply output: aws_instance.question[0]: Creation complete after 22s [id=i-0fe5c9f90a5c9376]aws_instance.question[1]: Creation complete after 25s [id=i-06240e6517a27559d]aws_instance.question[2]: Creation complete after 22s [id=i-0eb7ce0eed4df485] You later modified the state file aws_instance.question[1] manually, and you want to recreate just one aws_instance.question[1] machine. Which command(s) should you run to accomplish this?",
+        "ques_type": 2,
+        "options": [
+            "terraform taint \"aws_instace.question[1]\"",
+            "terraform recreate -target=\"aws_instance.question[1]\"",
+            "terraform taint \"aws_instace.question[1]\"terraform apply",
+            "terraform refresh -target=\"aws_instace.question[1]\"terraform apply"
+        ],
+        "score": "terraform taint \"aws_instace.question[1]\"terraform apply"
+    },
+    {
+        "title": "You are using an AWS provider, and you need to create two EC2 instances in two different AWS regions. How can you use a single configuration to create resources in more than one region?",
+        "ques_type": 2,
+        "options": [
+            "By including multiple configurations for the same AWS provider.",
+            "By including separate provider blocks for each region.",
+            "By including multiple provider blocks with the same provider name. ",
+            "By including multiple provider blocks with different provider names. "
+        ],
+        "score": "By including multiple provider blocks with the same provider name."
+    },
+    {
+        "title": "You want to ensure that your S3 buckets are securely encrypted. What is the best way to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "Create a Git hook that checks if the encryption parameter is enabled.",
+            "Use AWS KMS to store a security key.",
+            "Create a lambda function triggered on a \u201ccreate bucket CloudTrail\u201d event.",
+            "Create a security policy using Sentinel policies."
+        ],
+        "score": "Create a security policy using Sentinel policies."
+    },
+    {
+        "title": "You have referred to a child module that has the following code. True or false: You can override the instance_type from t2.micro to t2.large from code without making any change in the module. resource \"aws_instance\" \"myec2\" { \n    ami = \"ami-082b5a644766e0e6f\" \n     instance_type = \"t2.micro\" \n }",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
